--- a/uploads/default/acceptance.xlsx
+++ b/uploads/default/acceptance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhichang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/sites/bo/uploads/default/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="316">
   <si>
     <t>凭证号</t>
     <rPh sb="0" eb="1">
@@ -337,708 +337,735 @@
     <t>JF170414001</t>
   </si>
   <si>
+    <t>华为服务器</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>JF170321001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京东方森太科技发展有限公司 </t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>JF170413001</t>
+  </si>
+  <si>
+    <t>常星</t>
+  </si>
+  <si>
+    <t>数据中心空调及UPS维保</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京爱森特智能工程有限公司 </t>
+  </si>
+  <si>
+    <t>JF170714001</t>
+  </si>
+  <si>
+    <t>数据中心发电机维保及耗材</t>
+  </si>
+  <si>
+    <t>北京爱森特智能工程有限公司</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>JF170715001</t>
+  </si>
+  <si>
+    <t>数据中心2017-2018年度物理环境维保</t>
+  </si>
+  <si>
+    <t>JF170401001</t>
+  </si>
+  <si>
+    <t>成员企业网络设备</t>
+  </si>
+  <si>
+    <t>JF170609001</t>
+  </si>
+  <si>
+    <t>F5维保</t>
+  </si>
+  <si>
+    <t>北京艾一英孚信息技术有限公司</t>
+  </si>
+  <si>
+    <t>JF170520001</t>
+  </si>
+  <si>
+    <t>思科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京神州数码云科信息技术有限公司 </t>
+  </si>
+  <si>
+    <t>JF170801001</t>
+  </si>
+  <si>
+    <t>青云软件（6月14日招标）</t>
+  </si>
+  <si>
+    <t>JF170925001</t>
+  </si>
+  <si>
+    <t>王世凯</t>
+  </si>
+  <si>
+    <t>廊坊建业大厦至开发区华祥路电信4M. SDH专线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国电信集团公司廊坊市分公司 </t>
+  </si>
+  <si>
+    <t>JF170925002</t>
+  </si>
+  <si>
+    <t>韩朝辉</t>
+  </si>
+  <si>
+    <t>保险经纪人信息管理系统V1.0购销合同</t>
+  </si>
+  <si>
+    <t>中科软科技股份有限公司</t>
+  </si>
+  <si>
+    <t>JF170925003</t>
+  </si>
+  <si>
+    <t>范璐岩</t>
+  </si>
+  <si>
+    <t>客房管理系统项目合同</t>
+  </si>
+  <si>
+    <t>北京柯莱特科技有限公司</t>
+  </si>
+  <si>
+    <t>JF171031001</t>
+  </si>
+  <si>
+    <t>新智云PaaS平台项目采购与实施合同</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京云思畅想科技有限公司 </t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>JF170904001</t>
+  </si>
+  <si>
+    <t>产品运营部-内容运营</t>
+  </si>
+  <si>
+    <t>周文虎</t>
+  </si>
+  <si>
+    <t>针对咨询部分的蓝图规划提供咨询服务</t>
+  </si>
+  <si>
+    <t>亿汇智科技（北京）有限公司</t>
+  </si>
+  <si>
+    <t>JF170914001</t>
+  </si>
+  <si>
+    <t>针对咨询部分系统现状分析和架构及方案设计部分提供服务（合同需入工作流审批）</t>
+  </si>
+  <si>
+    <t>北京融信易安信息技术有限公司</t>
+  </si>
+  <si>
+    <t>JF170805001</t>
+  </si>
+  <si>
+    <t>资金安全监控项目IBM OEM软件采购合同</t>
+  </si>
+  <si>
+    <t>北京天港惠达科技有限公司</t>
+  </si>
+  <si>
+    <t>JF170710001</t>
+  </si>
+  <si>
+    <t>流量分流器（已到货，跟进盖章合同、开票及付款）</t>
+  </si>
+  <si>
+    <t>北京奇策科技有限公司</t>
+  </si>
+  <si>
+    <t>JF170721001</t>
+  </si>
+  <si>
+    <t>应用事业一部</t>
+  </si>
+  <si>
+    <t>陈宝艳</t>
+  </si>
+  <si>
+    <t>EAS外包人员10/人／天</t>
+  </si>
+  <si>
+    <t>金蝶软件(中国)有限公司石家庄分公司</t>
+  </si>
+  <si>
+    <t>JF170719001</t>
+  </si>
+  <si>
+    <t>赵里海</t>
+  </si>
+  <si>
+    <t>E车E站系统推广与功能迭代项目</t>
+  </si>
+  <si>
+    <t>JF170804001</t>
+  </si>
+  <si>
+    <t>张雷</t>
+  </si>
+  <si>
+    <t>外包JAVA开发顾问两名，外包时间10天</t>
+  </si>
+  <si>
+    <t>朗新科技股份有限公司</t>
+  </si>
+  <si>
+    <t>JF170401002</t>
+  </si>
+  <si>
+    <t>数据中心设备维保服务2017年4月1日-2018年3月31日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神州数码系统集成服务有限公司 </t>
+  </si>
+  <si>
+    <t>JF170915004</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>北京东方森太科技发展有限公司</t>
+  </si>
+  <si>
+    <t>JF170710002</t>
+  </si>
+  <si>
+    <t>生态合作部</t>
+  </si>
+  <si>
+    <t>鲁江雷</t>
+  </si>
+  <si>
+    <t>易宝支付分成</t>
+  </si>
+  <si>
+    <t>易宝支付有限公司</t>
+  </si>
+  <si>
+    <t>JF170905001</t>
+  </si>
+  <si>
+    <t>JAVA中级：外包天数36天，前端中级：外包天数24天</t>
+  </si>
+  <si>
+    <t>佰邦达科技（天津）有限公司</t>
+  </si>
+  <si>
+    <t>JF170925004</t>
+  </si>
+  <si>
+    <t>JAVA高级、前端高级：外包天数35天</t>
+  </si>
+  <si>
+    <t>JF170905002</t>
+  </si>
+  <si>
+    <t>UI开发APP界面优化19人天</t>
+  </si>
+  <si>
+    <t>JF170719002</t>
+  </si>
+  <si>
+    <t>iCome项目迁移项目37人天</t>
+  </si>
+  <si>
+    <t>JF171015001</t>
+  </si>
+  <si>
+    <t>JAVA中级：外包天数25天，前端中级：外包天数31天</t>
+  </si>
+  <si>
+    <t>深圳市前海圆舟网络科技股份有限公司</t>
+  </si>
+  <si>
+    <t>JF170807001</t>
+  </si>
+  <si>
+    <t>石蕾</t>
+  </si>
+  <si>
+    <t>外包Java前端开发1名，100天，外包工作流开发1名，100天</t>
+  </si>
+  <si>
+    <t>JF170802001</t>
+  </si>
+  <si>
+    <t>市场策划部</t>
+  </si>
+  <si>
+    <t>倪祥龙</t>
+  </si>
+  <si>
+    <t>满意度调查</t>
+  </si>
+  <si>
+    <t>肆合众智（北京）管理咨询有限公司</t>
+  </si>
+  <si>
+    <t>JF170816001</t>
+  </si>
+  <si>
+    <t>华为网络设备*58</t>
+  </si>
+  <si>
+    <t>JF170816002</t>
+  </si>
+  <si>
+    <t>华为网络设备*1</t>
+  </si>
+  <si>
+    <t>JF170816003</t>
+  </si>
+  <si>
+    <t>华为网络设备*2</t>
+  </si>
+  <si>
+    <t>JF171015002</t>
+  </si>
+  <si>
+    <t>SLM迁移：外包天数5天；GRC迁移：外包天数5天；DB2升级：外包天数10天；</t>
+  </si>
+  <si>
+    <t>北京新数科技有限公司</t>
+  </si>
+  <si>
+    <t>JF170915005</t>
+  </si>
+  <si>
+    <t>华为服务器10台</t>
+  </si>
+  <si>
+    <t>JF170920001</t>
+  </si>
+  <si>
+    <t>GPU卡*10、IO扩展卡*10、GPU许可*20</t>
+  </si>
+  <si>
+    <t>JF170920002</t>
+  </si>
+  <si>
+    <t>IO扩展卡*8</t>
+  </si>
+  <si>
+    <t>JF170920003</t>
+  </si>
+  <si>
+    <t>JF170919001</t>
+  </si>
+  <si>
+    <t>贺治超</t>
+  </si>
+  <si>
+    <t>NBU软件采购</t>
+  </si>
+  <si>
+    <t>北京亿飞成科技发展有限公司</t>
+  </si>
+  <si>
+    <t>JF170912001</t>
+  </si>
+  <si>
+    <t>优化网关设备</t>
+  </si>
+  <si>
+    <t>和恒科技</t>
+  </si>
+  <si>
+    <t>JF170920004</t>
+  </si>
+  <si>
+    <t>李志文</t>
+  </si>
+  <si>
+    <t>轻资产管理软件开发及运维-合同签订后</t>
+  </si>
+  <si>
+    <t>北京无尖科技有限公司</t>
+  </si>
+  <si>
+    <t>JF170915006</t>
+  </si>
+  <si>
+    <t>职能支持部-商务组</t>
+  </si>
+  <si>
+    <t>沈炯</t>
+  </si>
+  <si>
+    <t>外包UI1名，8天；PHP开发中级1名，15天；PHP开发高级1名，42天</t>
+  </si>
+  <si>
+    <t>合肥凯捷技术有限公司</t>
+  </si>
+  <si>
+    <t>JF170920005</t>
+  </si>
+  <si>
+    <t>AnyLink</t>
+  </si>
+  <si>
+    <t>江苏紫清信息科技有限公司</t>
+  </si>
+  <si>
+    <t>JF170910001</t>
+  </si>
+  <si>
+    <t>华为电源*10、硬盘*264</t>
+  </si>
+  <si>
+    <t>北京鑫智盛世科技有限公司</t>
+  </si>
+  <si>
+    <t>JF170927001</t>
+  </si>
+  <si>
+    <t>安全支付跨系统支付-合同签订后50%首付款</t>
+  </si>
+  <si>
+    <t>JF170911001</t>
+  </si>
+  <si>
+    <t>BPM系统开发-合同签订后支付30%</t>
+  </si>
+  <si>
+    <t>深圳市蓝凌软件股份有限公司</t>
+  </si>
+  <si>
+    <t>JF170906001</t>
+  </si>
+  <si>
+    <t>新智云商务流程技术顾问25人天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青岛浩和森信息科技有限公司 </t>
+  </si>
+  <si>
+    <t>JF170911002</t>
+  </si>
+  <si>
+    <t>外包人员人/天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京柯莱特科技有限公司 </t>
+  </si>
+  <si>
+    <t>JF170905003</t>
+  </si>
+  <si>
+    <t>外包人员人/天4-7月份</t>
+  </si>
+  <si>
+    <t>JF170905004</t>
+  </si>
+  <si>
+    <t>外包人员人/天5-7月份</t>
+  </si>
+  <si>
+    <t>JF170905005</t>
+  </si>
+  <si>
+    <t>外包人员人/天6月份</t>
+  </si>
+  <si>
+    <t>JF170905006</t>
+  </si>
+  <si>
+    <t>JF170905007</t>
+  </si>
+  <si>
+    <t>JF170905008</t>
+  </si>
+  <si>
+    <t>JF170905009</t>
+  </si>
+  <si>
+    <t>JF170915007</t>
+  </si>
+  <si>
+    <t>华为服务器1台</t>
+  </si>
+  <si>
+    <t>JF170915008</t>
+  </si>
+  <si>
+    <t>华为服务器13台</t>
+  </si>
+  <si>
+    <t>JF170915009</t>
+  </si>
+  <si>
+    <t>JF170915010</t>
+  </si>
+  <si>
+    <t>华为服务器12台</t>
+  </si>
+  <si>
+    <t>JF170915011</t>
+  </si>
+  <si>
+    <t>JF170920006</t>
+  </si>
+  <si>
+    <t>NAC认证维保服务</t>
+  </si>
+  <si>
+    <t>北京国泰恒业科技有限公司</t>
+  </si>
+  <si>
+    <t>JF170926001</t>
+  </si>
+  <si>
+    <t>万兆（超七类）网线、光纤</t>
+  </si>
+  <si>
+    <t>上海峰鸣电脑网络有限公司</t>
+  </si>
+  <si>
+    <t>JF170930001</t>
+  </si>
+  <si>
+    <t>华为交换机*4、光模块*40</t>
+  </si>
+  <si>
+    <t>JF170930002</t>
+  </si>
+  <si>
+    <t>McAfee邮件网关维保</t>
+  </si>
+  <si>
+    <t>上海上讯信息技术股份有限公司</t>
+  </si>
+  <si>
+    <t>JF171020001</t>
+  </si>
+  <si>
+    <t>呼叫中心系统重构基础架构补充协议项目实施工作需采购UPS4台，单价10000元，合计40000元。
+型号及配置无特殊要求。</t>
+  </si>
+  <si>
+    <t>长沙超特网络工程有限公司</t>
+  </si>
+  <si>
+    <t>JF171015003</t>
+  </si>
+  <si>
+    <t>桌面虚拟化软件</t>
+  </si>
+  <si>
+    <t>北京华胜天隆信息技术有限公司</t>
+  </si>
+  <si>
+    <t>JF170915012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">律忠琪 </t>
+  </si>
+  <si>
+    <t>跨地区数据中心业务（IDC）和因特网接入业务（ISP）许可证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">汉唐信通（北京）咨询股份有限公司 </t>
+  </si>
+  <si>
+    <t>JF171015004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知识产权管理2017年7月</t>
+  </si>
+  <si>
+    <t>北京同达信恒知识产权代理有限公司</t>
+  </si>
+  <si>
+    <t>JF170820001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知识产权管理</t>
+  </si>
+  <si>
+    <t>北京清亦华知识产权代理事务所（普通合伙）</t>
+  </si>
+  <si>
+    <t>JF170820002</t>
+  </si>
+  <si>
+    <t>上海汇禾企业管理咨询有限公司</t>
+  </si>
+  <si>
+    <t>JF170820003</t>
+  </si>
+  <si>
+    <t>北京品源专利代理有限公司</t>
+  </si>
+  <si>
+    <t>JF170915013</t>
+  </si>
+  <si>
+    <t>GPU卡、IO扩展卡</t>
+  </si>
+  <si>
+    <t>北京国华云网科技股份有限公司</t>
+  </si>
+  <si>
+    <t>JF171015005</t>
+  </si>
+  <si>
+    <t>软件评测</t>
+  </si>
+  <si>
+    <t>上海市软件评测中心有限公司</t>
+  </si>
+  <si>
+    <t>JF170728001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐金杰 </t>
+  </si>
+  <si>
+    <t>证书认证</t>
+  </si>
+  <si>
+    <t>浙江葫芦娃网络技术有限公司</t>
+  </si>
+  <si>
+    <t>JF170905010</t>
+  </si>
+  <si>
+    <t>刘晓华</t>
+  </si>
+  <si>
+    <t>java高级11.5/人天</t>
+  </si>
+  <si>
+    <t>JF170925005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国移动通信集团河北有限公司廊坊分公司 </t>
+  </si>
+  <si>
+    <t>JF161019001</t>
+  </si>
+  <si>
+    <t>上线企业网络设备(华为备件)</t>
+  </si>
+  <si>
+    <t>北京华中恒泰网络科技有限公司</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>JF161123001</t>
+  </si>
+  <si>
+    <t>上线企业网络设备(Polo Alto防火墙)</t>
+  </si>
+  <si>
+    <t>北京万维睿智科技有限公司</t>
+  </si>
+  <si>
+    <t>JF160714001</t>
+  </si>
+  <si>
+    <t>华为设备采购</t>
+  </si>
+  <si>
+    <t>上海弗优切尔通信技术有限公司</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>JF161209001</t>
+  </si>
+  <si>
+    <t>乔建</t>
+  </si>
+  <si>
+    <t>PA-200防火墙</t>
+  </si>
+  <si>
+    <t>JF170125001</t>
+  </si>
+  <si>
+    <t>鄂岳辉</t>
+  </si>
+  <si>
+    <t>竑宇协作管理软件</t>
+  </si>
+  <si>
+    <t>上海鼎竑信息技术有限公司</t>
+  </si>
+  <si>
+    <t>JF161103001</t>
+  </si>
+  <si>
+    <t>华为备件：路由器/交换机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京华中恒泰网络科技有限公司 </t>
+  </si>
+  <si>
+    <t>传阅人</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'yue'ren</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传阅部门</t>
+    <rPh sb="0" eb="1">
+      <t>chuan'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务部</t>
+    <rPh sb="0" eb="1">
+      <t>shang'wu'bu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>刘玉婷</t>
     <rPh sb="0" eb="1">
-      <t>liu'yu'ting</t>
+      <t>liu'yu't</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为服务器</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>JF170321001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京东方森太科技发展有限公司 </t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>JF170413001</t>
-  </si>
-  <si>
-    <t>常星</t>
-  </si>
-  <si>
-    <t>数据中心空调及UPS维保</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京爱森特智能工程有限公司 </t>
-  </si>
-  <si>
-    <t>JF170714001</t>
-  </si>
-  <si>
-    <t>数据中心发电机维保及耗材</t>
-  </si>
-  <si>
-    <t>北京爱森特智能工程有限公司</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>JF170715001</t>
-  </si>
-  <si>
-    <t>数据中心2017-2018年度物理环境维保</t>
-  </si>
-  <si>
-    <t>JF170401001</t>
-  </si>
-  <si>
-    <t>成员企业网络设备</t>
-  </si>
-  <si>
-    <t>JF170609001</t>
-  </si>
-  <si>
-    <t>F5维保</t>
-  </si>
-  <si>
-    <t>北京艾一英孚信息技术有限公司</t>
-  </si>
-  <si>
-    <t>JF170520001</t>
-  </si>
-  <si>
-    <t>思科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京神州数码云科信息技术有限公司 </t>
-  </si>
-  <si>
-    <t>JF170801001</t>
-  </si>
-  <si>
-    <t>青云软件（6月14日招标）</t>
-  </si>
-  <si>
-    <t>JF170925001</t>
-  </si>
-  <si>
-    <t>王世凯</t>
-  </si>
-  <si>
-    <t>廊坊建业大厦至开发区华祥路电信4M. SDH专线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国电信集团公司廊坊市分公司 </t>
-  </si>
-  <si>
-    <t>JF170925002</t>
-  </si>
-  <si>
-    <t>韩朝辉</t>
-  </si>
-  <si>
-    <t>保险经纪人信息管理系统V1.0购销合同</t>
-  </si>
-  <si>
-    <t>中科软科技股份有限公司</t>
-  </si>
-  <si>
-    <t>JF170925003</t>
-  </si>
-  <si>
-    <t>范璐岩</t>
-  </si>
-  <si>
-    <t>客房管理系统项目合同</t>
-  </si>
-  <si>
-    <t>北京柯莱特科技有限公司</t>
-  </si>
-  <si>
-    <t>JF171031001</t>
-  </si>
-  <si>
-    <t>新智云PaaS平台项目采购与实施合同</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京云思畅想科技有限公司 </t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>JF170904001</t>
-  </si>
-  <si>
-    <t>产品运营部-内容运营</t>
-  </si>
-  <si>
-    <t>周文虎</t>
-  </si>
-  <si>
-    <t>针对咨询部分的蓝图规划提供咨询服务</t>
-  </si>
-  <si>
-    <t>亿汇智科技（北京）有限公司</t>
-  </si>
-  <si>
-    <t>JF170914001</t>
-  </si>
-  <si>
-    <t>针对咨询部分系统现状分析和架构及方案设计部分提供服务（合同需入工作流审批）</t>
-  </si>
-  <si>
-    <t>北京融信易安信息技术有限公司</t>
-  </si>
-  <si>
-    <t>JF170805001</t>
-  </si>
-  <si>
-    <t>资金安全监控项目IBM OEM软件采购合同</t>
-  </si>
-  <si>
-    <t>北京天港惠达科技有限公司</t>
-  </si>
-  <si>
-    <t>JF170710001</t>
-  </si>
-  <si>
-    <t>流量分流器（已到货，跟进盖章合同、开票及付款）</t>
-  </si>
-  <si>
-    <t>北京奇策科技有限公司</t>
-  </si>
-  <si>
-    <t>JF170721001</t>
-  </si>
-  <si>
-    <t>应用事业一部</t>
-  </si>
-  <si>
-    <t>陈宝艳</t>
-  </si>
-  <si>
-    <t>EAS外包人员10/人／天</t>
-  </si>
-  <si>
-    <t>金蝶软件(中国)有限公司石家庄分公司</t>
-  </si>
-  <si>
-    <t>JF170719001</t>
-  </si>
-  <si>
-    <t>赵里海</t>
-  </si>
-  <si>
-    <t>E车E站系统推广与功能迭代项目</t>
-  </si>
-  <si>
-    <t>JF170804001</t>
-  </si>
-  <si>
-    <t>张雷</t>
-  </si>
-  <si>
-    <t>外包JAVA开发顾问两名，外包时间10天</t>
-  </si>
-  <si>
-    <t>朗新科技股份有限公司</t>
-  </si>
-  <si>
-    <t>JF170401002</t>
-  </si>
-  <si>
-    <t>数据中心设备维保服务2017年4月1日-2018年3月31日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神州数码系统集成服务有限公司 </t>
-  </si>
-  <si>
-    <t>JF170915004</t>
-  </si>
-  <si>
-    <t>服务器</t>
-  </si>
-  <si>
-    <t>北京东方森太科技发展有限公司</t>
-  </si>
-  <si>
-    <t>JF170710002</t>
-  </si>
-  <si>
-    <t>生态合作部</t>
-  </si>
-  <si>
-    <t>鲁江雷</t>
-  </si>
-  <si>
-    <t>易宝支付分成</t>
-  </si>
-  <si>
-    <t>易宝支付有限公司</t>
-  </si>
-  <si>
-    <t>JF170905001</t>
-  </si>
-  <si>
-    <t>JAVA中级：外包天数36天，前端中级：外包天数24天</t>
-  </si>
-  <si>
-    <t>佰邦达科技（天津）有限公司</t>
-  </si>
-  <si>
-    <t>JF170925004</t>
-  </si>
-  <si>
-    <t>JAVA高级、前端高级：外包天数35天</t>
-  </si>
-  <si>
-    <t>JF170905002</t>
-  </si>
-  <si>
-    <t>UI开发APP界面优化19人天</t>
-  </si>
-  <si>
-    <t>JF170719002</t>
-  </si>
-  <si>
-    <t>iCome项目迁移项目37人天</t>
-  </si>
-  <si>
-    <t>JF171015001</t>
-  </si>
-  <si>
-    <t>JAVA中级：外包天数25天，前端中级：外包天数31天</t>
-  </si>
-  <si>
-    <t>深圳市前海圆舟网络科技股份有限公司</t>
-  </si>
-  <si>
-    <t>JF170807001</t>
-  </si>
-  <si>
-    <t>石蕾</t>
-  </si>
-  <si>
-    <t>外包Java前端开发1名，100天，外包工作流开发1名，100天</t>
-  </si>
-  <si>
-    <t>JF170802001</t>
-  </si>
-  <si>
-    <t>市场策划部</t>
-  </si>
-  <si>
-    <t>倪祥龙</t>
-  </si>
-  <si>
-    <t>满意度调查</t>
-  </si>
-  <si>
-    <t>肆合众智（北京）管理咨询有限公司</t>
-  </si>
-  <si>
-    <t>JF170816001</t>
-  </si>
-  <si>
-    <t>华为网络设备*58</t>
-  </si>
-  <si>
-    <t>JF170816002</t>
-  </si>
-  <si>
-    <t>华为网络设备*1</t>
-  </si>
-  <si>
-    <t>JF170816003</t>
-  </si>
-  <si>
-    <t>华为网络设备*2</t>
-  </si>
-  <si>
-    <t>JF171015002</t>
-  </si>
-  <si>
-    <t>SLM迁移：外包天数5天；GRC迁移：外包天数5天；DB2升级：外包天数10天；</t>
-  </si>
-  <si>
-    <t>北京新数科技有限公司</t>
-  </si>
-  <si>
-    <t>JF170915005</t>
-  </si>
-  <si>
-    <t>华为服务器10台</t>
-  </si>
-  <si>
-    <t>JF170920001</t>
-  </si>
-  <si>
-    <t>GPU卡*10、IO扩展卡*10、GPU许可*20</t>
-  </si>
-  <si>
-    <t>JF170920002</t>
-  </si>
-  <si>
-    <t>IO扩展卡*8</t>
-  </si>
-  <si>
-    <t>JF170920003</t>
-  </si>
-  <si>
-    <t>JF170919001</t>
-  </si>
-  <si>
-    <t>贺治超</t>
-  </si>
-  <si>
-    <t>NBU软件采购</t>
-  </si>
-  <si>
-    <t>北京亿飞成科技发展有限公司</t>
-  </si>
-  <si>
-    <t>JF170912001</t>
-  </si>
-  <si>
-    <t>优化网关设备</t>
-  </si>
-  <si>
-    <t>和恒科技</t>
-  </si>
-  <si>
-    <t>JF170920004</t>
-  </si>
-  <si>
-    <t>李志文</t>
-  </si>
-  <si>
-    <t>轻资产管理软件开发及运维-合同签订后</t>
-  </si>
-  <si>
-    <t>北京无尖科技有限公司</t>
-  </si>
-  <si>
-    <t>JF170915006</t>
-  </si>
-  <si>
-    <t>职能支持部-商务组</t>
-  </si>
-  <si>
-    <t>沈炯</t>
-  </si>
-  <si>
-    <t>外包UI1名，8天；PHP开发中级1名，15天；PHP开发高级1名，42天</t>
-  </si>
-  <si>
-    <t>合肥凯捷技术有限公司</t>
-  </si>
-  <si>
-    <t>JF170920005</t>
-  </si>
-  <si>
-    <t>AnyLink</t>
-  </si>
-  <si>
-    <t>江苏紫清信息科技有限公司</t>
-  </si>
-  <si>
-    <t>JF170910001</t>
-  </si>
-  <si>
-    <t>华为电源*10、硬盘*264</t>
-  </si>
-  <si>
-    <t>北京鑫智盛世科技有限公司</t>
-  </si>
-  <si>
-    <t>JF170927001</t>
-  </si>
-  <si>
-    <t>安全支付跨系统支付-合同签订后50%首付款</t>
-  </si>
-  <si>
-    <t>JF170911001</t>
-  </si>
-  <si>
-    <t>BPM系统开发-合同签订后支付30%</t>
-  </si>
-  <si>
-    <t>深圳市蓝凌软件股份有限公司</t>
-  </si>
-  <si>
-    <t>JF170906001</t>
-  </si>
-  <si>
-    <t>新智云商务流程技术顾问25人天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青岛浩和森信息科技有限公司 </t>
-  </si>
-  <si>
-    <t>JF170911002</t>
-  </si>
-  <si>
-    <t>外包人员人/天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京柯莱特科技有限公司 </t>
-  </si>
-  <si>
-    <t>JF170905003</t>
-  </si>
-  <si>
-    <t>外包人员人/天4-7月份</t>
-  </si>
-  <si>
-    <t>JF170905004</t>
-  </si>
-  <si>
-    <t>外包人员人/天5-7月份</t>
-  </si>
-  <si>
-    <t>JF170905005</t>
-  </si>
-  <si>
-    <t>外包人员人/天6月份</t>
-  </si>
-  <si>
-    <t>JF170905006</t>
-  </si>
-  <si>
-    <t>JF170905007</t>
-  </si>
-  <si>
-    <t>JF170905008</t>
-  </si>
-  <si>
-    <t>JF170905009</t>
-  </si>
-  <si>
-    <t>JF170915007</t>
-  </si>
-  <si>
-    <t>华为服务器1台</t>
-  </si>
-  <si>
-    <t>JF170915008</t>
-  </si>
-  <si>
-    <t>华为服务器13台</t>
-  </si>
-  <si>
-    <t>JF170915009</t>
-  </si>
-  <si>
-    <t>JF170915010</t>
-  </si>
-  <si>
-    <t>华为服务器12台</t>
-  </si>
-  <si>
-    <t>JF170915011</t>
-  </si>
-  <si>
-    <t>JF170920006</t>
-  </si>
-  <si>
-    <t>NAC认证维保服务</t>
-  </si>
-  <si>
-    <t>北京国泰恒业科技有限公司</t>
-  </si>
-  <si>
-    <t>JF170926001</t>
-  </si>
-  <si>
-    <t>万兆（超七类）网线、光纤</t>
-  </si>
-  <si>
-    <t>上海峰鸣电脑网络有限公司</t>
-  </si>
-  <si>
-    <t>JF170930001</t>
-  </si>
-  <si>
-    <t>华为交换机*4、光模块*40</t>
-  </si>
-  <si>
-    <t>JF170930002</t>
-  </si>
-  <si>
-    <t>McAfee邮件网关维保</t>
-  </si>
-  <si>
-    <t>上海上讯信息技术股份有限公司</t>
-  </si>
-  <si>
-    <t>JF171020001</t>
-  </si>
-  <si>
-    <t>呼叫中心系统重构基础架构补充协议项目实施工作需采购UPS4台，单价10000元，合计40000元。
-型号及配置无特殊要求。</t>
-  </si>
-  <si>
-    <t>长沙超特网络工程有限公司</t>
-  </si>
-  <si>
-    <t>JF171015003</t>
-  </si>
-  <si>
-    <t>桌面虚拟化软件</t>
-  </si>
-  <si>
-    <t>北京华胜天隆信息技术有限公司</t>
-  </si>
-  <si>
-    <t>JF170915012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">律忠琪 </t>
-  </si>
-  <si>
-    <t>跨地区数据中心业务（IDC）和因特网接入业务（ISP）许可证</t>
-  </si>
-  <si>
-    <t xml:space="preserve">汉唐信通（北京）咨询股份有限公司 </t>
-  </si>
-  <si>
-    <t>JF171015004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 知识产权管理2017年7月</t>
-  </si>
-  <si>
-    <t>北京同达信恒知识产权代理有限公司</t>
-  </si>
-  <si>
-    <t>JF170820001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 知识产权管理</t>
-  </si>
-  <si>
-    <t>北京清亦华知识产权代理事务所（普通合伙）</t>
-  </si>
-  <si>
-    <t>JF170820002</t>
-  </si>
-  <si>
-    <t>上海汇禾企业管理咨询有限公司</t>
-  </si>
-  <si>
-    <t>JF170820003</t>
-  </si>
-  <si>
-    <t>北京品源专利代理有限公司</t>
-  </si>
-  <si>
-    <t>JF170915013</t>
-  </si>
-  <si>
-    <t>GPU卡、IO扩展卡</t>
-  </si>
-  <si>
-    <t>北京国华云网科技股份有限公司</t>
-  </si>
-  <si>
-    <t>JF171015005</t>
-  </si>
-  <si>
-    <t>软件评测</t>
-  </si>
-  <si>
-    <t>上海市软件评测中心有限公司</t>
-  </si>
-  <si>
-    <t>JF170728001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">唐金杰 </t>
-  </si>
-  <si>
-    <t>证书认证</t>
-  </si>
-  <si>
-    <t>浙江葫芦娃网络技术有限公司</t>
-  </si>
-  <si>
-    <t>JF170905010</t>
-  </si>
-  <si>
-    <t>刘晓华</t>
-  </si>
-  <si>
-    <t>java高级11.5/人天</t>
-  </si>
-  <si>
-    <t>JF170925005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中国移动通信集团河北有限公司廊坊分公司 </t>
-  </si>
-  <si>
-    <t>JF161019001</t>
-  </si>
-  <si>
-    <t>上线企业网络设备(华为备件)</t>
-  </si>
-  <si>
-    <t>北京华中恒泰网络科技有限公司</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>JF161123001</t>
-  </si>
-  <si>
-    <t>上线企业网络设备(Polo Alto防火墙)</t>
-  </si>
-  <si>
-    <t>北京万维睿智科技有限公司</t>
-  </si>
-  <si>
-    <t>JF160714001</t>
-  </si>
-  <si>
-    <t>华为设备采购</t>
-  </si>
-  <si>
-    <t>上海弗优切尔通信技术有限公司</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>JF161209001</t>
-  </si>
-  <si>
-    <t>乔建</t>
-  </si>
-  <si>
-    <t>PA-200防火墙</t>
-  </si>
-  <si>
-    <t>JF170125001</t>
-  </si>
-  <si>
-    <t>鄂岳辉</t>
-  </si>
-  <si>
-    <t>竑宇协作管理软件</t>
-  </si>
-  <si>
-    <t>上海鼎竑信息技术有限公司</t>
-  </si>
-  <si>
-    <t>JF161103001</t>
-  </si>
-  <si>
-    <t>华为备件：路由器/交换机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京华中恒泰网络科技有限公司 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘玉婷</t>
   </si>
 </sst>
 </file>
@@ -1046,9 +1073,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1079,12 +1106,6 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1138,11 +1159,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1420,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
@@ -1428,10 +1451,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1473,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1462,16 +1485,22 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -1482,7 +1511,7 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>42694</v>
       </c>
       <c r="H2">
@@ -1491,16 +1520,22 @@
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>18</v>
@@ -1511,7 +1546,7 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>42765</v>
       </c>
       <c r="H3">
@@ -1520,16 +1555,22 @@
       <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -1540,7 +1581,7 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>42791</v>
       </c>
       <c r="H4">
@@ -1549,16 +1590,22 @@
       <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>27</v>
@@ -1569,7 +1616,7 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>42724</v>
       </c>
       <c r="H5">
@@ -1578,16 +1625,22 @@
       <c r="J5" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>31</v>
@@ -1598,7 +1651,7 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>42880</v>
       </c>
       <c r="H6">
@@ -1607,16 +1660,22 @@
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>35</v>
@@ -1627,7 +1686,7 @@
       <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>42887</v>
       </c>
       <c r="H7">
@@ -1636,16 +1695,22 @@
       <c r="J7" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>38</v>
@@ -1656,7 +1721,7 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>42885</v>
       </c>
       <c r="H8">
@@ -1665,16 +1730,22 @@
       <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
@@ -1685,7 +1756,7 @@
       <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>42993</v>
       </c>
       <c r="H9">
@@ -1694,16 +1765,22 @@
       <c r="J9" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>44</v>
@@ -1714,7 +1791,7 @@
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>42993</v>
       </c>
       <c r="H10">
@@ -1723,16 +1800,22 @@
       <c r="J10" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -1743,7 +1826,7 @@
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>42993</v>
       </c>
       <c r="H11">
@@ -1752,16 +1835,22 @@
       <c r="J11" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>48</v>
@@ -1772,7 +1861,7 @@
       <c r="F12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>42972</v>
       </c>
       <c r="H12">
@@ -1781,16 +1870,22 @@
       <c r="J12" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>52</v>
@@ -1801,7 +1896,7 @@
       <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>42972</v>
       </c>
       <c r="H13">
@@ -1810,16 +1905,22 @@
       <c r="J13" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>54</v>
@@ -1830,7 +1931,7 @@
       <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>42972</v>
       </c>
       <c r="H14">
@@ -1839,16 +1940,22 @@
       <c r="J14" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>314</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>58</v>
@@ -1859,7 +1966,7 @@
       <c r="F15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>42972</v>
       </c>
       <c r="H15">
@@ -1868,16 +1975,22 @@
       <c r="J15" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>60</v>
@@ -1888,7 +2001,7 @@
       <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>42972</v>
       </c>
       <c r="H16">
@@ -1897,16 +2010,22 @@
       <c r="J16" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>52</v>
@@ -1917,7 +2036,7 @@
       <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>42976</v>
       </c>
       <c r="H17">
@@ -1926,16 +2045,22 @@
       <c r="J17" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>64</v>
@@ -1946,7 +2071,7 @@
       <c r="F18" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>42783</v>
       </c>
       <c r="H18">
@@ -1955,16 +2080,22 @@
       <c r="J18" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>67</v>
@@ -1975,7 +2106,7 @@
       <c r="F19" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>42783</v>
       </c>
       <c r="H19">
@@ -1984,16 +2115,22 @@
       <c r="J19" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>70</v>
@@ -2004,7 +2141,7 @@
       <c r="F20" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>42793</v>
       </c>
       <c r="H20">
@@ -2013,16 +2150,22 @@
       <c r="J20" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>73</v>
@@ -2033,7 +2176,7 @@
       <c r="F21" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>42783</v>
       </c>
       <c r="H21">
@@ -2042,16 +2185,22 @@
       <c r="J21" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>76</v>
@@ -2062,7 +2211,7 @@
       <c r="F22" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>42783</v>
       </c>
       <c r="H22">
@@ -2071,19 +2220,25 @@
       <c r="J22" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -2091,25 +2246,31 @@
       <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>42839</v>
       </c>
       <c r="H23">
         <v>62000</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>63</v>
+        <v>314</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>73</v>
@@ -2118,117 +2279,141 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="6">
+        <v>82</v>
+      </c>
+      <c r="G24" s="5">
         <v>42815</v>
       </c>
       <c r="H24">
         <v>36650</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>85</v>
-      </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
         <v>87</v>
       </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>42838</v>
       </c>
       <c r="H25">
         <v>369200</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
         <v>90</v>
       </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>42930</v>
       </c>
       <c r="H26">
         <v>156000</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="6">
+        <v>90</v>
+      </c>
+      <c r="G27" s="5">
         <v>42931</v>
       </c>
       <c r="H27">
         <v>90000</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -2236,36 +2421,42 @@
       <c r="F28" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>42826</v>
       </c>
       <c r="H28">
         <v>31700</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
         <v>98</v>
       </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>42895</v>
       </c>
       <c r="H29">
@@ -2274,27 +2465,33 @@
       <c r="J29" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
         <v>101</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>42875</v>
       </c>
       <c r="H30">
@@ -2303,19 +2500,25 @@
       <c r="J30" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -2323,7 +2526,7 @@
       <c r="F31" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>42948</v>
       </c>
       <c r="H31">
@@ -2332,27 +2535,33 @@
       <c r="J31" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
         <v>107</v>
       </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>43003</v>
       </c>
       <c r="H32">
@@ -2361,27 +2570,33 @@
       <c r="J32" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
         <v>111</v>
       </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>43003</v>
       </c>
       <c r="H33">
@@ -2390,27 +2605,33 @@
       <c r="J33" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
         <v>115</v>
       </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>43003</v>
       </c>
       <c r="H34">
@@ -2419,56 +2640,68 @@
       <c r="J34" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
         <v>118</v>
       </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>43039</v>
       </c>
       <c r="H35">
         <v>950000</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>121</v>
-      </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>313</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
         <v>124</v>
       </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>42982</v>
       </c>
       <c r="H36">
@@ -2477,27 +2710,33 @@
       <c r="J36" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
         <v>127</v>
       </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>42992</v>
       </c>
       <c r="H37">
@@ -2506,27 +2745,33 @@
       <c r="J37" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
         <v>130</v>
       </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>42952</v>
       </c>
       <c r="H38">
@@ -2535,114 +2780,138 @@
       <c r="J38" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
         <v>133</v>
       </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>42926</v>
       </c>
       <c r="H39">
         <v>28200</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
         <v>138</v>
       </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>42937</v>
       </c>
       <c r="H40">
         <v>25000</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="6">
+        <v>138</v>
+      </c>
+      <c r="G41" s="5">
         <v>42935</v>
       </c>
       <c r="H41">
         <v>125000</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
         <v>145</v>
       </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>42951</v>
       </c>
       <c r="H42">
@@ -2651,56 +2920,68 @@
       <c r="J42" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
         <v>148</v>
       </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>42826</v>
       </c>
       <c r="H43">
         <v>1297987</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
         <v>151</v>
       </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>42993</v>
       </c>
       <c r="H44">
@@ -2709,56 +2990,68 @@
       <c r="J44" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
         <v>156</v>
       </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>42926</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
         <v>159</v>
       </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>42983</v>
       </c>
       <c r="H46">
@@ -2767,27 +3060,33 @@
       <c r="J46" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="E47" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>160</v>
-      </c>
-      <c r="G47" s="6">
+        <v>159</v>
+      </c>
+      <c r="G47" s="5">
         <v>43003</v>
       </c>
       <c r="H47">
@@ -2796,27 +3095,33 @@
       <c r="J47" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B48" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>160</v>
-      </c>
-      <c r="G48" s="6">
+        <v>159</v>
+      </c>
+      <c r="G48" s="5">
         <v>42983</v>
       </c>
       <c r="H48">
@@ -2825,85 +3130,103 @@
       <c r="J48" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
-      </c>
-      <c r="G49" s="6">
+        <v>138</v>
+      </c>
+      <c r="G49" s="5">
         <v>42935</v>
       </c>
       <c r="H49">
         <v>92500</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
         <v>168</v>
       </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>43023</v>
       </c>
       <c r="H50">
         <v>127800</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E51" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>169</v>
-      </c>
-      <c r="G51" s="6">
+        <v>168</v>
+      </c>
+      <c r="G51" s="5">
         <v>42954</v>
       </c>
       <c r="H51">
@@ -2912,27 +3235,33 @@
       <c r="J51" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="B52" t="s">
+        <v>313</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
         <v>176</v>
       </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>177</v>
-      </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>42949</v>
       </c>
       <c r="H52">
@@ -2941,27 +3270,33 @@
       <c r="J52" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
-      </c>
-      <c r="G53" s="6">
+        <v>151</v>
+      </c>
+      <c r="G53" s="5">
         <v>42963</v>
       </c>
       <c r="H53">
@@ -2970,27 +3305,33 @@
       <c r="J53" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
-      </c>
-      <c r="G54" s="6">
+        <v>151</v>
+      </c>
+      <c r="G54" s="5">
         <v>42963</v>
       </c>
       <c r="H54">
@@ -2999,27 +3340,33 @@
       <c r="J54" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" t="s">
+        <v>313</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" s="6">
+        <v>151</v>
+      </c>
+      <c r="G55" s="5">
         <v>42963</v>
       </c>
       <c r="H55">
@@ -3028,48 +3375,60 @@
       <c r="J55" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
         <v>185</v>
       </c>
-      <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" t="s">
-        <v>186</v>
-      </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>43023</v>
       </c>
       <c r="H56">
         <v>94000</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -3077,7 +3436,7 @@
       <c r="F57" t="s">
         <v>32</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>42993</v>
       </c>
       <c r="H57">
@@ -3086,27 +3445,33 @@
       <c r="J57" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
-      </c>
-      <c r="G58" s="6">
+        <v>151</v>
+      </c>
+      <c r="G58" s="5">
         <v>42998</v>
       </c>
       <c r="H58">
@@ -3115,27 +3480,33 @@
       <c r="J58" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
-      </c>
-      <c r="G59" s="6">
+        <v>151</v>
+      </c>
+      <c r="G59" s="5">
         <v>42998</v>
       </c>
       <c r="H59">
@@ -3144,27 +3515,33 @@
       <c r="J59" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>152</v>
-      </c>
-      <c r="G60" s="6">
+        <v>151</v>
+      </c>
+      <c r="G60" s="5">
         <v>42998</v>
       </c>
       <c r="H60">
@@ -3173,27 +3550,33 @@
       <c r="J60" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
         <v>196</v>
       </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>197</v>
-      </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <v>42997</v>
       </c>
       <c r="H61">
@@ -3202,27 +3585,33 @@
       <c r="J61" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
         <v>199</v>
       </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>200</v>
-      </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
         <v>42990</v>
       </c>
       <c r="H62">
@@ -3231,27 +3620,33 @@
       <c r="J62" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
         <v>203</v>
       </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>204</v>
-      </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <v>42998</v>
       </c>
       <c r="H63">
@@ -3260,27 +3655,33 @@
       <c r="J63" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>205</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="B64" t="s">
+        <v>313</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
         <v>208</v>
       </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>209</v>
-      </c>
-      <c r="G64" s="6">
+      <c r="G64" s="5">
         <v>42993</v>
       </c>
       <c r="H64">
@@ -3289,27 +3690,33 @@
       <c r="J64" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B65" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
         <v>211</v>
       </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>212</v>
-      </c>
-      <c r="G65" s="6">
+      <c r="G65" s="5">
         <v>42998</v>
       </c>
       <c r="H65">
@@ -3318,27 +3725,33 @@
       <c r="J65" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
         <v>214</v>
       </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" t="s">
-        <v>215</v>
-      </c>
-      <c r="G66" s="6">
+      <c r="G66" s="5">
         <v>42988</v>
       </c>
       <c r="H66">
@@ -3347,27 +3760,33 @@
       <c r="J66" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B67" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E67" t="s">
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="6">
+        <v>127</v>
+      </c>
+      <c r="G67" s="5">
         <v>43005</v>
       </c>
       <c r="H67">
@@ -3376,27 +3795,33 @@
       <c r="J67" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" t="s">
+        <v>313</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
         <v>219</v>
       </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" t="s">
-        <v>220</v>
-      </c>
-      <c r="G68" s="6">
+      <c r="G68" s="5">
         <v>42989</v>
       </c>
       <c r="H68">
@@ -3405,27 +3830,33 @@
       <c r="J68" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
         <v>222</v>
       </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" t="s">
-        <v>223</v>
-      </c>
-      <c r="G69" s="6">
+      <c r="G69" s="5">
         <v>42984</v>
       </c>
       <c r="H69">
@@ -3434,27 +3865,33 @@
       <c r="J69" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
         <v>225</v>
       </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" t="s">
-        <v>226</v>
-      </c>
-      <c r="G70" s="6">
+      <c r="G70" s="5">
         <v>42989</v>
       </c>
       <c r="H70">
@@ -3463,27 +3900,33 @@
       <c r="J70" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" t="s">
+        <v>313</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="E71" t="s">
         <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>226</v>
-      </c>
-      <c r="G71" s="6">
+        <v>225</v>
+      </c>
+      <c r="G71" s="5">
         <v>42983</v>
       </c>
       <c r="H71">
@@ -3492,27 +3935,33 @@
       <c r="J71" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" t="s">
+        <v>313</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B72" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="E72" t="s">
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>226</v>
-      </c>
-      <c r="G72" s="6">
+        <v>225</v>
+      </c>
+      <c r="G72" s="5">
         <v>42983</v>
       </c>
       <c r="H72">
@@ -3521,27 +3970,33 @@
       <c r="J72" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" t="s">
+        <v>313</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>226</v>
-      </c>
-      <c r="G73" s="6">
+        <v>225</v>
+      </c>
+      <c r="G73" s="5">
         <v>42983</v>
       </c>
       <c r="H73">
@@ -3550,27 +4005,33 @@
       <c r="J73" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>226</v>
-      </c>
-      <c r="G74" s="6">
+        <v>225</v>
+      </c>
+      <c r="G74" s="5">
         <v>42983</v>
       </c>
       <c r="H74">
@@ -3579,27 +4040,33 @@
       <c r="J74" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>226</v>
-      </c>
-      <c r="G75" s="6">
+        <v>225</v>
+      </c>
+      <c r="G75" s="5">
         <v>42983</v>
       </c>
       <c r="H75">
@@ -3608,27 +4075,33 @@
       <c r="J75" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>226</v>
-      </c>
-      <c r="G76" s="6">
+        <v>225</v>
+      </c>
+      <c r="G76" s="5">
         <v>42983</v>
       </c>
       <c r="H76">
@@ -3637,27 +4110,33 @@
       <c r="J76" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>226</v>
-      </c>
-      <c r="G77" s="6">
+        <v>225</v>
+      </c>
+      <c r="G77" s="5">
         <v>42983</v>
       </c>
       <c r="H77">
@@ -3666,19 +4145,25 @@
       <c r="J77" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B78" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -3686,7 +4171,7 @@
       <c r="F78" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78" s="5">
         <v>42993</v>
       </c>
       <c r="H78">
@@ -3695,19 +4180,25 @@
       <c r="J78" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="B79" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -3715,7 +4206,7 @@
       <c r="F79" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="5">
         <v>42993</v>
       </c>
       <c r="H79">
@@ -3724,19 +4215,25 @@
       <c r="J79" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -3744,7 +4241,7 @@
       <c r="F80" t="s">
         <v>32</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="5">
         <v>42993</v>
       </c>
       <c r="H80">
@@ -3753,19 +4250,25 @@
       <c r="J80" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" t="s">
+        <v>313</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="B81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -3773,7 +4276,7 @@
       <c r="F81" t="s">
         <v>32</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81" s="5">
         <v>42993</v>
       </c>
       <c r="H81">
@@ -3782,19 +4285,25 @@
       <c r="J81" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -3802,7 +4311,7 @@
       <c r="F82" t="s">
         <v>32</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G82" s="5">
         <v>42993</v>
       </c>
       <c r="H82">
@@ -3811,27 +4320,33 @@
       <c r="J82" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" t="s">
+        <v>313</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B83" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
         <v>246</v>
       </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" t="s">
-        <v>247</v>
-      </c>
-      <c r="G83" s="6">
+      <c r="G83" s="5">
         <v>42998</v>
       </c>
       <c r="H83">
@@ -3840,27 +4355,33 @@
       <c r="J83" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K83" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" t="s">
+        <v>313</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
         <v>249</v>
       </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>250</v>
-      </c>
-      <c r="G84" s="6">
+      <c r="G84" s="5">
         <v>43004</v>
       </c>
       <c r="H84">
@@ -3869,19 +4390,25 @@
       <c r="J84" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K84" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" t="s">
+        <v>313</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="B85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -3889,7 +4416,7 @@
       <c r="F85" t="s">
         <v>19</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="5">
         <v>43008</v>
       </c>
       <c r="H85">
@@ -3898,27 +4425,33 @@
       <c r="J85" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
+        <v>313</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
         <v>254</v>
       </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" t="s">
-        <v>255</v>
-      </c>
-      <c r="G86" s="6">
+      <c r="G86" s="5">
         <v>43008</v>
       </c>
       <c r="H86">
@@ -3927,85 +4460,103 @@
       <c r="J86" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>313</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
         <v>257</v>
       </c>
-      <c r="E87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" t="s">
-        <v>258</v>
-      </c>
-      <c r="G87" s="6">
+      <c r="G87" s="5">
         <v>43028</v>
       </c>
       <c r="H87">
         <v>34300</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B88" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
         <v>260</v>
       </c>
-      <c r="E88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" t="s">
-        <v>261</v>
-      </c>
-      <c r="G88" s="6">
+      <c r="G88" s="5">
         <v>43023</v>
       </c>
       <c r="H88">
         <v>392448</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>262</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>174</v>
+        <v>261</v>
+      </c>
+      <c r="B89" t="s">
+        <v>313</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
         <v>264</v>
       </c>
-      <c r="E89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" t="s">
-        <v>265</v>
-      </c>
-      <c r="G89" s="6">
+      <c r="G89" s="5">
         <v>42993</v>
       </c>
       <c r="H89">
@@ -4014,56 +4565,68 @@
       <c r="J89" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
         <v>267</v>
       </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" t="s">
-        <v>268</v>
-      </c>
-      <c r="G90" s="6">
+      <c r="G90" s="5">
         <v>43023</v>
       </c>
       <c r="H90">
         <v>30200</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
         <v>270</v>
       </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
-        <v>271</v>
-      </c>
-      <c r="G91" s="6">
+      <c r="G91" s="5">
         <v>42967</v>
       </c>
       <c r="H91">
@@ -4072,27 +4635,33 @@
       <c r="J91" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" t="s">
-        <v>273</v>
-      </c>
-      <c r="G92" s="6">
+      <c r="G92" s="5">
         <v>42967</v>
       </c>
       <c r="H92">
@@ -4101,27 +4670,33 @@
       <c r="J92" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
         <v>274</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" t="s">
-        <v>275</v>
-      </c>
-      <c r="G93" s="6">
+      <c r="G93" s="5">
         <v>42967</v>
       </c>
       <c r="H93">
@@ -4130,27 +4705,33 @@
       <c r="J93" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>275</v>
+      </c>
+      <c r="B94" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B94" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
         <v>277</v>
       </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" t="s">
-        <v>278</v>
-      </c>
-      <c r="G94" s="6">
+      <c r="G94" s="5">
         <v>42993</v>
       </c>
       <c r="H94">
@@ -4159,85 +4740,103 @@
       <c r="J94" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>278</v>
+      </c>
+      <c r="B95" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
         <v>280</v>
       </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" t="s">
-        <v>281</v>
-      </c>
-      <c r="G95" s="6">
+      <c r="G95" s="5">
         <v>43023</v>
       </c>
       <c r="H95">
         <v>18000</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>282</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>174</v>
+        <v>281</v>
+      </c>
+      <c r="B96" t="s">
+        <v>313</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
         <v>284</v>
       </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" t="s">
-        <v>285</v>
-      </c>
-      <c r="G96" s="6">
+      <c r="G96" s="5">
         <v>42944</v>
       </c>
       <c r="H96">
         <v>23486</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>160</v>
-      </c>
-      <c r="G97" s="6">
+        <v>159</v>
+      </c>
+      <c r="G97" s="5">
         <v>42983</v>
       </c>
       <c r="H97">
@@ -4246,27 +4845,33 @@
       <c r="J97" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K97" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" t="s">
+        <v>313</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
         <v>289</v>
       </c>
-      <c r="B98" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E98" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" t="s">
-        <v>290</v>
-      </c>
-      <c r="G98" s="6">
+      <c r="G98" s="5">
         <v>43003</v>
       </c>
       <c r="H98">
@@ -4275,56 +4880,68 @@
       <c r="J98" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K98" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" t="s">
+        <v>313</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B99" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
         <v>292</v>
       </c>
-      <c r="E99" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" t="s">
-        <v>293</v>
-      </c>
-      <c r="G99" s="6">
+      <c r="G99" s="5">
         <v>42662</v>
       </c>
       <c r="H99">
         <v>18350</v>
       </c>
       <c r="J99" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>313</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
         <v>296</v>
       </c>
-      <c r="E100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" t="s">
-        <v>297</v>
-      </c>
-      <c r="G100" s="6">
+      <c r="G100" s="5">
         <v>42697</v>
       </c>
       <c r="H100">
@@ -4333,48 +4950,60 @@
       <c r="J100" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K100" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>297</v>
+      </c>
+      <c r="B101" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B101" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
         <v>299</v>
       </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" t="s">
-        <v>300</v>
-      </c>
-      <c r="G101" s="6">
+      <c r="G101" s="5">
         <v>42565</v>
       </c>
       <c r="H101">
         <v>857877.88</v>
       </c>
       <c r="J101" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>302</v>
-      </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -4382,7 +5011,7 @@
       <c r="F102" t="s">
         <v>68</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G102" s="5">
         <v>42713</v>
       </c>
       <c r="H102">
@@ -4391,27 +5020,33 @@
       <c r="J102" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K102" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
         <v>307</v>
       </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" t="s">
-        <v>308</v>
-      </c>
-      <c r="G103" s="6">
+      <c r="G103" s="5">
         <v>42760</v>
       </c>
       <c r="H103">
@@ -4420,27 +5055,33 @@
       <c r="J103" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K103" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>308</v>
+      </c>
+      <c r="B104" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B104" t="s">
-        <v>56</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
         <v>310</v>
       </c>
-      <c r="E104" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" t="s">
-        <v>311</v>
-      </c>
-      <c r="G104" s="6">
+      <c r="G104" s="5">
         <v>42677</v>
       </c>
       <c r="H104">
@@ -4448,6 +5089,12 @@
       </c>
       <c r="J104" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/default/acceptance.xlsx
+++ b/uploads/default/acceptance.xlsx
@@ -203,7 +203,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,11 +270,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,45 +560,45 @@
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -612,7 +621,7 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>42694</v>
       </c>
       <c r="H2">
